--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>-0.0003321193216834217</v>
+        <v>0.01181081961840391</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>-0.0003657463530544192</v>
+        <v>0.0001669048651820049</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>-0.0007464191876351833</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.2762109339237213</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.2798411250114441</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.2779057323932648</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2708118259906769</v>
+        <v>0.0002012950280914083</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2378869950771332</v>
+        <v>0.0002012950280914083</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.2145213782787323</v>
+        <v>0.0002012950280914083</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.1501286774873734</v>
+        <v>4.993453330826014E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.07223735004663467</v>
+        <v>4.993453330826014E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.0384276919066906</v>
+        <v>0.00211002491414547</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.003981048241257668</v>
+        <v>0.03806935623288155</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0.0004774286935571581</v>
+        <v>0.1027047485113144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0.0004805501375813037</v>
+        <v>0.1660291999578476</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0.0001821455953177065</v>
+        <v>0.2245608568191528</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.0003682989336084574</v>
+        <v>0.2876517772674561</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.0001114434635383077</v>
+        <v>0.2869270741939545</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0.0001941010123118758</v>
+        <v>0.2518434226512909</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>8.97601421456784E-06</v>
+        <v>0.2213416397571564</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>-6.443601887440309E-05</v>
+        <v>0.1724926233291626</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>-1.38369359774515E-05</v>
+        <v>0.09907197207212448</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.005224587395787239</v>
+        <v>0.0565994419157505</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0.04569464549422264</v>
+        <v>0.01638025045394897</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0.1056619808077812</v>
+        <v>0.00797614548355341</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>0.1764424592256546</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0.2381362915039062</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.2728224396705627</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.2786204516887665</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.2770066857337952</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.2727044224739075</v>
+        <v>0.0002012950280914083</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.247059166431427</v>
+        <v>4.993453330826014E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.1903581619262695</v>
+        <v>4.993453330826014E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0.1140354499220848</v>
+        <v>0.0001274472160730511</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.05334489420056343</v>
+        <v>0.0001274472160730511</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.03043803758919239</v>
+        <v>0.001398798660375178</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.001372139086015522</v>
+        <v>0.02253327518701553</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.0007774955593049526</v>
+        <v>0.05055148154497147</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.0003990294935647398</v>
+        <v>0.08348728716373444</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>0.0003990294935647398</v>
+        <v>0.1322636604309082</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.0006635821191594005</v>
+        <v>0.1941403746604919</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0.0007149157463572919</v>
+        <v>0.2199341803789139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>0.000500494905281812</v>
+        <v>0.2116765528917313</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>0.0001766696368576959</v>
+        <v>0.2107678651809692</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>3.59683035640046E-05</v>
+        <v>0.2155941426753998</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>-1.343980147794355E-05</v>
+        <v>0.1964880973100662</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.001812146627344191</v>
+        <v>0.1133057251572609</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.0245425496250391</v>
+        <v>0.05293119698762894</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0.06552932411432266</v>
+        <v>0.0148650212213397</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>0.107958972454071</v>
+        <v>0.0001790774113032967</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>0.1600854098796844</v>
+        <v>4.526551037997706E-06</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0.1936289817094803</v>
+        <v>7.005644420132739E-06</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>0.2333725392818451</v>
+        <v>7.005644420132739E-06</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>0.2324849367141724</v>
+        <v>2.839853550540283E-06</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.2056003957986832</v>
+        <v>1.302296550420579E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.1713811159133911</v>
+        <v>1.302296550420579E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.148577556014061</v>
+        <v>1.332998272118857E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.08164297044277191</v>
+        <v>1.332998272118857E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.03804798051714897</v>
+        <v>1.332998272118857E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.02515069767832756</v>
+        <v>0.003972972743213177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.0005838288343511522</v>
+        <v>0.06047835946083069</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>0.0003726674476638436</v>
+        <v>0.1453289389610291</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0.0003990294935647398</v>
+        <v>0.2120439112186432</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.0004774286935571581</v>
+        <v>0.2732817828655243</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0.000666703621391207</v>
+        <v>0.2971655130386353</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>0.0004196325608063489</v>
+        <v>0.2988953590393066</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>0.0001941010123118758</v>
+        <v>0.2988872826099396</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>8.97601421456784E-06</v>
+        <v>0.2993556559085846</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>-6.443601887440309E-05</v>
+        <v>0.2846159040927887</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>-1.38369359774515E-05</v>
+        <v>0.244238868355751</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.002888694172725081</v>
+        <v>0.1674125194549561</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0.04029815271496773</v>
+        <v>0.07115001231431961</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.1007097586989403</v>
+        <v>0.0154002932831645</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>0.1657916754484177</v>
+        <v>0.0004456954484339803</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>0.2399128675460815</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>0.2729041576385498</v>
+        <v>-9.078933362616226E-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>0.2785646021366119</v>
+        <v>-2.369170579186175E-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>0.2759100198745728</v>
+        <v>-2.369170579186175E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.2712659239768982</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.2590949237346649</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.2155501693487167</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.1432309746742249</v>
+        <v>1.302296550420579E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.05650968477129936</v>
+        <v>1.302296550420579E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.03043803758919239</v>
+        <v>0.004978809505701065</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.0005838288343511522</v>
+        <v>0.05157428979873657</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.0003990294935647398</v>
+        <v>0.128395214676857</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>0.0004774286935571581</v>
+        <v>0.2013548612594604</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.0004805501375813037</v>
+        <v>0.2774001061916351</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.000666703621391207</v>
+        <v>0.2981037795543671</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0.0004196325608063489</v>
+        <v>0.2989566326141357</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>0.0002020903048105538</v>
+        <v>0.2989753484725952</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>0.0001013910514302552</v>
+        <v>0.2992810606956482</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>2.797902197926305E-05</v>
+        <v>0.2821032702922821</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>-1.38369359774515E-05</v>
+        <v>0.240889310836792</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0.002888694172725081</v>
+        <v>0.1576745510101318</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0.04004114866256714</v>
+        <v>0.05663472041487694</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>0.1003915891051292</v>
+        <v>0.0131197776645422</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>0.1632207930088043</v>
+        <v>0.0003220037906430662</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>0.2400335073471069</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0.272428035736084</v>
+        <v>-9.078933362616226E-05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.2771458625793457</v>
+        <v>-9.078933362616226E-05</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>0.2700593173503876</v>
+        <v>-9.078933362616226E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.2323791235685349</v>
+        <v>0.0001274472160730511</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.1985368132591248</v>
+        <v>0.0001274472160730511</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.1571319401264191</v>
+        <v>0.0001274472160730511</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.107899934053421</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.04865725338459015</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.02515069767832756</v>
+        <v>0.00374426762573421</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.0005296441377140582</v>
+        <v>0.04194673523306847</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>-0.0006952921976335347</v>
+        <v>0.09581857919692993</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.0007774955593049526</v>
+        <v>0.1627926677465439</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0.0003726674476638436</v>
+        <v>0.2411347925662994</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0.0005851829773746431</v>
+        <v>0.2951845526695251</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.0006365166045725346</v>
+        <v>0.2993177175521851</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>0.0003991739358752966</v>
+        <v>0.2989130318164825</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0.0001766696368576959</v>
+        <v>0.2963970899581909</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>0.0001766696368576959</v>
+        <v>0.280951976776123</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>-1.343980147794355E-05</v>
+        <v>0.2135035842657089</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0.003224454121664166</v>
+        <v>0.1385600417852402</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0.04584690928459167</v>
+        <v>0.05159664526581764</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>0.100279688835144</v>
+        <v>0.0131197776645422</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>0.1686867922544479</v>
+        <v>0.0004853073915001005</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0.2364465296268463</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>0.2722803354263306</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>0.278037965297699</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>0.2770066857337952</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.2769620418548584</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.2712253332138062</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0.2347245514392853</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0.1573753207921982</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.07177805155515671</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>0.03509922325611115</v>
+        <v>0.003755994373932481</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.001142164459452033</v>
+        <v>0.0400441437959671</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>-0.000572725897654891</v>
+        <v>0.09112191945314407</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>-0.0005684039206244051</v>
+        <v>0.1458369195461273</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>-0.0006952921976335347</v>
+        <v>0.2023285776376724</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0.0009636490722186863</v>
+        <v>0.2526795268058777</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0.0006101545877754688</v>
+        <v>0.2855046689510345</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>0.0003207747940905392</v>
+        <v>0.2928373217582703</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.0001831919944379479</v>
+        <v>0.2918765842914581</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.0002529725607018918</v>
+        <v>0.2760641574859619</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>0.0001272615190828219</v>
+        <v>0.2107466012239456</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0.00263497862033546</v>
+        <v>0.1392753273248672</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0.04022578150033951</v>
+        <v>0.0476093627512455</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>0.09555322676897049</v>
+        <v>0.01909313909709454</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>0.1665620505809784</v>
+        <v>0.0005057475646026433</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0.2396825104951859</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>0.2713837623596191</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>0.278037965297699</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>0.2770066857337952</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0.2767797112464905</v>
+        <v>3.042885055037914E-08</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>0.2701810598373413</v>
+        <v>8.014974810066633E-06</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>0.2339057922363281</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>0.1573753207921982</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.07177805155515671</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.03197436034679413</v>
+        <v>0.005456742830574512</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.0004651936760637909</v>
+        <v>0.04961064830422401</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>-0.000572725897654891</v>
+        <v>0.1166021078824997</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>-0.0005684039206244051</v>
+        <v>0.1936031132936478</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>-0.0006952921976335347</v>
+        <v>0.2551702857017517</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.0009636490722186863</v>
+        <v>0.2936934530735016</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.0006101545877754688</v>
+        <v>0.2989270985126495</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0.0003207747940905392</v>
+        <v>0.2980557978153229</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0.0001831919944379479</v>
+        <v>0.2956840693950653</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>0.0001766696368576959</v>
+        <v>0.2769253849983215</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>-1.343980147794355E-05</v>
+        <v>0.2288935780525208</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0.001958006527274847</v>
+        <v>0.1515438556671143</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.03651715442538261</v>
+        <v>0.06570670753717422</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.0955531969666481</v>
+        <v>0.02274479903280735</v>
       </c>
     </row>
   </sheetData>
